--- a/rrr.xlsx
+++ b/rrr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lingjianfa/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lingjianfa/Github/fr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE9BB237-8CA4-484B-B838-C92A0A85634B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A257E27D-68D8-A74D-9B89-9577E9E1E7E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17000" xr2:uid="{ADA4FD1D-1C9C-3347-B4EC-DEC791ACCD0C}"/>
   </bookViews>
@@ -25,51 +25,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>公布时间</t>
+  </si>
+  <si>
+    <t>生效时间</t>
+  </si>
+  <si>
+    <t>大型金融机构</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>生效时间</t>
+    <t>中小金融机构</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>大型金融机构调整前</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>调整前</t>
   </si>
   <si>
-    <t>中小金融机构调整前</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>调整后</t>
   </si>
   <si>
-    <t>大型金融机构调整后</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中小金融机构调整后</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大型金融机构调整幅度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中小金融机构调整幅度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>调整幅度</t>
   </si>
   <si>
     <t>上证</t>
-    <rPh sb="0" eb="2">
-      <t>yg</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>深证</t>
-    <rPh sb="0" eb="1">
-      <t>ip</t>
-    </rPh>
+  </si>
+  <si>
+    <t>公布次日涨跌</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -148,6 +135,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,148 +460,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72F9AAD-6357-E148-9286-557C132E7197}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>43831</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43836</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.105</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1.15E-2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1.9900000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>43714</v>
+        <v>43831</v>
       </c>
       <c r="B3" s="1">
-        <v>43724</v>
+        <v>43836</v>
       </c>
       <c r="C3" s="2">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D3" s="2">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="E3" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F3" s="2">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="G3" s="2">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="H3" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="I3" s="4">
-        <v>8.3999999999999995E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="J3" s="4">
-        <v>1.8200000000000001E-2</v>
+        <v>1.9900000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>43469</v>
+        <v>43714</v>
       </c>
       <c r="B4" s="1">
-        <v>43490</v>
+        <v>43724</v>
       </c>
       <c r="C4" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F4" s="2">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="G4" s="2">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="H4" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="I4" s="4">
-        <v>7.1999999999999998E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="J4" s="4">
-        <v>1.5800000000000002E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -613,22 +595,22 @@
         <v>43469</v>
       </c>
       <c r="B5" s="1">
-        <v>43480</v>
+        <v>43490</v>
       </c>
       <c r="C5" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="E5" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F5" s="2">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="G5" s="2">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="H5" s="3">
         <v>-5.0000000000000001E-3</v>
@@ -642,528 +624,528 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>43380</v>
+        <v>43469</v>
       </c>
       <c r="B6" s="1">
-        <v>43388</v>
+        <v>43480</v>
       </c>
       <c r="C6" s="2">
-        <v>0.155</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E6" s="3">
-        <v>-0.01</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F6" s="2">
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="G6" s="2">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="H6" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="I6" s="3">
-        <v>-3.7199999999999997E-2</v>
-      </c>
-      <c r="J6" s="3">
-        <v>-4.0500000000000001E-2</v>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.5800000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>43275</v>
+        <v>43380</v>
       </c>
       <c r="B7" s="1">
-        <v>43286</v>
+        <v>43388</v>
       </c>
       <c r="C7" s="2">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="D7" s="2">
-        <v>0.155</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="F7" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="G7" s="2">
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="H7" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="I7" s="3">
-        <v>-1.0500000000000001E-2</v>
+        <v>-3.7199999999999997E-2</v>
       </c>
       <c r="J7" s="3">
-        <v>-8.9999999999999993E-3</v>
+        <v>-4.0500000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>43207</v>
+        <v>43275</v>
       </c>
       <c r="B8" s="1">
-        <v>43215</v>
+        <v>43286</v>
       </c>
       <c r="C8" s="2">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="D8" s="2">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="E8" s="3">
-        <v>-0.01</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F8" s="2">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G8" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="H8" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="I8" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J8" s="4">
-        <v>9.1999999999999998E-3</v>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-1.0500000000000001E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>42429</v>
+        <v>43207</v>
       </c>
       <c r="B9" s="1">
-        <v>42430</v>
+        <v>43215</v>
       </c>
       <c r="C9" s="2">
-        <v>0.17499999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="D9" s="2">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E9" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="F9" s="2">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="G9" s="2">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H9" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="I9" s="4">
-        <v>1.6799999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J9" s="4">
-        <v>2.47E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <v>42300</v>
+        <v>42429</v>
       </c>
       <c r="B10" s="1">
-        <v>42301</v>
+        <v>42430</v>
       </c>
       <c r="C10" s="2">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D10" s="2">
-        <v>0.17499999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="E10" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F10" s="2">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="G10" s="2">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="H10" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="J10" s="4">
-        <v>7.3000000000000001E-3</v>
+        <v>2.47E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <v>42241</v>
+        <v>42300</v>
       </c>
       <c r="B11" s="1">
-        <v>42253</v>
+        <v>42301</v>
       </c>
       <c r="C11" s="2">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="D11" s="2">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E11" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F11" s="2">
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="G11" s="2">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="H11" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="I11" s="3">
-        <v>-1.2699999999999999E-2</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-2.92E-2</v>
+      <c r="I11" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
-        <v>42113</v>
+        <v>42241</v>
       </c>
       <c r="B12" s="1">
-        <v>42114</v>
+        <v>42253</v>
       </c>
       <c r="C12" s="2">
-        <v>0.19500000000000001</v>
+        <v>0.185</v>
       </c>
       <c r="D12" s="2">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="E12" s="3">
-        <v>-0.01</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F12" s="2">
-        <v>0.17499999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="G12" s="2">
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="H12" s="3">
-        <v>-0.01</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="I12" s="3">
-        <v>-1.6400000000000001E-2</v>
+        <v>-1.2699999999999999E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>-1.9599999999999999E-2</v>
+        <v>-2.92E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
-        <v>42039</v>
+        <v>42113</v>
       </c>
       <c r="B13" s="1">
-        <v>42040</v>
+        <v>42114</v>
       </c>
       <c r="C13" s="2">
-        <v>0.2</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D13" s="2">
-        <v>0.19500000000000001</v>
+        <v>0.185</v>
       </c>
       <c r="E13" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="F13" s="2">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G13" s="2">
-        <v>0.17499999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H13" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="I13" s="3">
-        <v>-1.18E-2</v>
+        <v>-1.6400000000000001E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>-4.5999999999999999E-3</v>
+        <v>-1.9599999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>41041</v>
+        <v>42039</v>
       </c>
       <c r="B14" s="1">
-        <v>41047</v>
+        <v>42040</v>
       </c>
       <c r="C14" s="2">
-        <v>0.20499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="D14" s="2">
-        <v>0.2</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="E14" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F14" s="2">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="G14" s="2">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="H14" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="I14" s="3">
-        <v>-5.8999999999999999E-3</v>
+        <v>-1.18E-2</v>
       </c>
       <c r="J14" s="3">
-        <v>-1.1599999999999999E-2</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <v>40957</v>
+        <v>41041</v>
       </c>
       <c r="B15" s="1">
-        <v>40963</v>
+        <v>41047</v>
       </c>
       <c r="C15" s="2">
-        <v>0.21</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>0.20499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F15" s="2">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="G15" s="2">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="H15" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="I15" s="4">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1E-4</v>
+      <c r="I15" s="3">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <v>40877</v>
+        <v>40957</v>
       </c>
       <c r="B16" s="1">
-        <v>40882</v>
+        <v>40963</v>
       </c>
       <c r="C16" s="2">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="D16" s="2">
-        <v>0.21</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="E16" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F16" s="2">
-        <v>0.19500000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="G16" s="2">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="H16" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="I16" s="4">
-        <v>2.29E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="J16" s="4">
-        <v>2.3199999999999998E-2</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <v>40708</v>
+        <v>40877</v>
       </c>
       <c r="B17" s="1">
-        <v>40714</v>
+        <v>40882</v>
       </c>
       <c r="C17" s="2">
+        <v>0.215</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.21</v>
       </c>
-      <c r="D17" s="2">
-        <v>0.215</v>
-      </c>
-      <c r="E17" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="E17" s="3">
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F17" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G17" s="2">
         <v>0.19</v>
       </c>
-      <c r="G17" s="2">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="H17" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I17" s="3">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="J17" s="3">
-        <v>-9.9000000000000008E-3</v>
+      <c r="H17" s="3">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2.29E-2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2.3199999999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
-        <v>40675</v>
+        <v>40708</v>
       </c>
       <c r="B18" s="1">
-        <v>40681</v>
+        <v>40714</v>
       </c>
       <c r="C18" s="2">
-        <v>0.20499999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="D18" s="2">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="E18" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F18" s="2">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="G18" s="2">
-        <v>0.19</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="H18" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I18" s="4">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="J18" s="4">
-        <v>7.0000000000000001E-3</v>
+      <c r="I18" s="3">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <v>40650</v>
+        <v>40675</v>
       </c>
       <c r="B19" s="1">
-        <v>40654</v>
+        <v>40681</v>
       </c>
       <c r="C19" s="2">
-        <v>0.2</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>0.20499999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="E19" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F19" s="2">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="G19" s="2">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="H19" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I19" s="4">
-        <v>2.2000000000000001E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="J19" s="4">
-        <v>2.7000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <v>40620</v>
+        <v>40650</v>
       </c>
       <c r="B20" s="1">
-        <v>40627</v>
+        <v>40654</v>
       </c>
       <c r="C20" s="2">
-        <v>0.19500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D20" s="2">
-        <v>0.2</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="E20" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F20" s="2">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G20" s="2">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="H20" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I20" s="4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-6.1999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
-        <v>40592</v>
+        <v>40620</v>
       </c>
       <c r="B21" s="1">
-        <v>40598</v>
+        <v>40627</v>
       </c>
       <c r="C21" s="2">
-        <v>0.19</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D21" s="2">
-        <v>0.19500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E21" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F21" s="2">
-        <v>0.16500000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="G21" s="2">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H21" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I21" s="4">
-        <v>1.12E-2</v>
-      </c>
-      <c r="J21" s="4">
-        <v>2.06E-2</v>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
-        <v>40557</v>
+        <v>40592</v>
       </c>
       <c r="B22" s="1">
-        <v>40563</v>
+        <v>40598</v>
       </c>
       <c r="C22" s="2">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="D22" s="2">
-        <v>0.19</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="E22" s="4">
         <v>5.0000000000000001E-3</v>
@@ -1172,368 +1154,368 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="G22" s="2">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>-3.0300000000000001E-2</v>
-      </c>
-      <c r="J22" s="3">
-        <v>-4.5499999999999999E-2</v>
+        <v>0.17</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1.12E-2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2.06E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
-        <v>40522</v>
+        <v>40557</v>
       </c>
       <c r="B23" s="1">
-        <v>40532</v>
+        <v>40563</v>
       </c>
       <c r="C23" s="2">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="D23" s="2">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="E23" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F23" s="2">
-        <v>0.16</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="G23" s="2">
         <v>0.16500000000000001</v>
       </c>
-      <c r="H23" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I23" s="4">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="J23" s="4">
-        <v>3.5700000000000003E-2</v>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-3.0300000000000001E-2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-4.5499999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
-        <v>40501</v>
+        <v>40522</v>
       </c>
       <c r="B24" s="1">
-        <v>40511</v>
+        <v>40532</v>
       </c>
       <c r="C24" s="2">
-        <v>0.17499999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="D24" s="2">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="E24" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F24" s="2">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="G24" s="2">
-        <v>0.16</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H24" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I24" s="3">
-        <v>-1.5E-3</v>
+      <c r="I24" s="4">
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="J24" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>3.5700000000000003E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
-        <v>40492</v>
+        <v>40501</v>
       </c>
       <c r="B25" s="1">
-        <v>40498</v>
+        <v>40511</v>
       </c>
       <c r="C25" s="2">
-        <v>0.17</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D25" s="2">
-        <v>0.17499999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="E25" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F25" s="2">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="G25" s="2">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="H25" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I25" s="4">
-        <v>1.04E-2</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="I25" s="3">
         <v>-1.5E-3</v>
+      </c>
+      <c r="J25" s="4">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
-        <v>40300</v>
+        <v>40492</v>
       </c>
       <c r="B26" s="1">
-        <v>40308</v>
+        <v>40498</v>
       </c>
       <c r="C26" s="2">
-        <v>0.16500000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D26" s="2">
-        <v>0.17</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E26" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F26" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="G26" s="2">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="H26" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I26" s="3">
-        <v>-1.23E-2</v>
+      <c r="I26" s="4">
+        <v>1.04E-2</v>
       </c>
       <c r="J26" s="3">
-        <v>-1.8100000000000002E-2</v>
+        <v>-1.5E-3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
-        <v>40221</v>
+        <v>40300</v>
       </c>
       <c r="B27" s="1">
-        <v>40234</v>
+        <v>40308</v>
       </c>
       <c r="C27" s="2">
-        <v>0.16</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D27" s="2">
-        <v>0.16500000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="E27" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F27" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="G27" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="H27" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I27" s="3">
-        <v>-4.8999999999999998E-3</v>
+        <v>-1.23E-2</v>
       </c>
       <c r="J27" s="3">
-        <v>-7.4000000000000003E-3</v>
+        <v>-1.8100000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1">
-        <v>40190</v>
+        <v>40221</v>
       </c>
       <c r="B28" s="1">
-        <v>40196</v>
+        <v>40234</v>
       </c>
       <c r="C28" s="2">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="D28" s="2">
-        <v>0.16</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E28" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F28" s="2">
-        <v>0.13500000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G28" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H28" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I28" s="3">
-        <v>-3.09E-2</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="J28" s="3">
-        <v>-2.7300000000000001E-2</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1">
-        <v>39804</v>
+        <v>40190</v>
       </c>
       <c r="B29" s="1">
-        <v>39807</v>
+        <v>40196</v>
       </c>
       <c r="C29" s="2">
+        <v>0.155</v>
+      </c>
+      <c r="D29" s="2">
         <v>0.16</v>
       </c>
-      <c r="D29" s="2">
-        <v>0.155</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-5.0000000000000001E-3</v>
+      <c r="E29" s="4">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F29" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G29" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G29" s="2">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-5.0000000000000001E-3</v>
+      <c r="H29" s="4">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I29" s="3">
-        <v>-4.5499999999999999E-2</v>
+        <v>-3.09E-2</v>
       </c>
       <c r="J29" s="3">
-        <v>-4.6899999999999997E-2</v>
+        <v>-2.7300000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1">
-        <v>39778</v>
+        <v>39804</v>
       </c>
       <c r="B30" s="1">
-        <v>39787</v>
+        <v>39807</v>
       </c>
       <c r="C30" s="2">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="D30" s="2">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="E30" s="3">
-        <v>-0.01</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F30" s="2">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G30" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="H30" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="I30" s="4">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="J30" s="4">
-        <v>2.3E-2</v>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="I30" s="3">
+        <v>-4.5499999999999999E-2</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-4.6899999999999997E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1">
-        <v>39729</v>
+        <v>39778</v>
       </c>
       <c r="B31" s="1">
-        <v>39736</v>
+        <v>39787</v>
       </c>
       <c r="C31" s="2">
-        <v>0.17499999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="D31" s="2">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E31" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="F31" s="2">
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="G31" s="2">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H31" s="3">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="I31" s="3">
-        <v>-8.3999999999999995E-3</v>
-      </c>
-      <c r="J31" s="3">
-        <v>-2.4E-2</v>
+        <v>-0.02</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J31" s="4">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1">
-        <v>39706</v>
+        <v>39729</v>
       </c>
       <c r="B32" s="1">
-        <v>39716</v>
+        <v>39736</v>
       </c>
       <c r="C32" s="2">
         <v>0.17499999999999999</v>
       </c>
       <c r="D32" s="2">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
+        <v>0.17</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F32" s="2">
-        <v>0.17499999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="G32" s="2">
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="H32" s="3">
-        <v>-0.01</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="I32" s="3">
-        <v>-4.4699999999999997E-2</v>
+        <v>-8.3999999999999995E-3</v>
       </c>
       <c r="J32" s="3">
-        <v>-8.8999999999999999E-3</v>
+        <v>-2.4E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1">
-        <v>39606</v>
+        <v>39706</v>
       </c>
       <c r="B33" s="1">
-        <v>39624</v>
+        <v>39716</v>
       </c>
       <c r="C33" s="2">
-        <v>0.17</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D33" s="2">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E33" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="E33" s="2">
+        <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>0.17</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G33" s="2">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="H33" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-0.01</v>
       </c>
       <c r="I33" s="3">
-        <v>-7.7299999999999994E-2</v>
+        <v>-4.4699999999999997E-2</v>
       </c>
       <c r="J33" s="3">
-        <v>-8.2500000000000004E-2</v>
+        <v>-8.8999999999999999E-3</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1541,22 +1523,22 @@
         <v>39606</v>
       </c>
       <c r="B34" s="1">
-        <v>39614</v>
+        <v>39624</v>
       </c>
       <c r="C34" s="2">
-        <v>0.16500000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D34" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E34" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F34" s="2">
         <v>0.17</v>
       </c>
-      <c r="E34" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.16500000000000001</v>
-      </c>
       <c r="G34" s="2">
-        <v>0.17</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="H34" s="4">
         <v>5.0000000000000001E-3</v>
@@ -1570,454 +1552,494 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1">
-        <v>39580</v>
+        <v>39606</v>
       </c>
       <c r="B35" s="1">
-        <v>39588</v>
+        <v>39614</v>
       </c>
       <c r="C35" s="2">
-        <v>0.16</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D35" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F35" s="2">
         <v>0.16500000000000001</v>
       </c>
-      <c r="E35" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.16</v>
-      </c>
       <c r="G35" s="2">
-        <v>0.16500000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="H35" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I35" s="3">
-        <v>-1.84E-2</v>
+        <v>-7.7299999999999994E-2</v>
       </c>
       <c r="J35" s="3">
-        <v>-7.0000000000000001E-3</v>
+        <v>-8.2500000000000004E-2</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1">
-        <v>39554</v>
+        <v>39580</v>
       </c>
       <c r="B36" s="1">
-        <v>39563</v>
+        <v>39588</v>
       </c>
       <c r="C36" s="2">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="D36" s="2">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E36" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F36" s="2">
         <v>0.16</v>
       </c>
-      <c r="E36" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.155</v>
-      </c>
       <c r="G36" s="2">
-        <v>0.16</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H36" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I36" s="3">
-        <v>-2.0899999999999998E-2</v>
+        <v>-1.84E-2</v>
       </c>
       <c r="J36" s="3">
-        <v>-3.32E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1">
-        <v>39525</v>
+        <v>39554</v>
       </c>
       <c r="B37" s="1">
-        <v>39532</v>
+        <v>39563</v>
       </c>
       <c r="C37" s="2">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="D37" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F37" s="2">
         <v>0.155</v>
       </c>
-      <c r="E37" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.15</v>
-      </c>
       <c r="G37" s="2">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="H37" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I37" s="4">
-        <v>2.53E-2</v>
-      </c>
-      <c r="J37" s="4">
-        <v>4.4499999999999998E-2</v>
+      <c r="I37" s="3">
+        <v>-2.0899999999999998E-2</v>
+      </c>
+      <c r="J37" s="3">
+        <v>-3.32E-2</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1">
-        <v>39463</v>
+        <v>39525</v>
       </c>
       <c r="B38" s="1">
-        <v>39472</v>
+        <v>39532</v>
       </c>
       <c r="C38" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D38" s="2">
+        <v>0.155</v>
+      </c>
+      <c r="E38" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F38" s="2">
         <v>0.15</v>
       </c>
-      <c r="E38" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.14499999999999999</v>
-      </c>
       <c r="G38" s="2">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="H38" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I38" s="3">
-        <v>-2.63E-2</v>
-      </c>
-      <c r="J38" s="3">
-        <v>-2.41E-2</v>
+      <c r="I38" s="4">
+        <v>2.53E-2</v>
+      </c>
+      <c r="J38" s="4">
+        <v>4.4499999999999998E-2</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1">
-        <v>39424</v>
+        <v>39463</v>
       </c>
       <c r="B39" s="1">
-        <v>39441</v>
+        <v>39472</v>
       </c>
       <c r="C39" s="2">
-        <v>0.13500000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D39" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E39" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F39" s="2">
         <v>0.14499999999999999</v>
       </c>
-      <c r="E39" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.13500000000000001</v>
-      </c>
       <c r="G39" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="H39" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1.38E-2</v>
-      </c>
-      <c r="J39" s="4">
-        <v>2.07E-2</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I39" s="3">
+        <v>-2.63E-2</v>
+      </c>
+      <c r="J39" s="3">
+        <v>-2.41E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1">
-        <v>39396</v>
+        <v>39424</v>
       </c>
       <c r="B40" s="1">
-        <v>39412</v>
+        <v>39441</v>
       </c>
       <c r="C40" s="2">
-        <v>0.13</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D40" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F40" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E40" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.13</v>
-      </c>
       <c r="G40" s="2">
-        <v>0.13500000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H40" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I40" s="3">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="J40" s="3">
-        <v>-5.4999999999999997E-3</v>
+        <v>0.01</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1.38E-2</v>
+      </c>
+      <c r="J40" s="4">
+        <v>2.07E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1">
-        <v>39368</v>
+        <v>39396</v>
       </c>
       <c r="B41" s="1">
-        <v>39380</v>
+        <v>39412</v>
       </c>
       <c r="C41" s="2">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="D41" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E41" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F41" s="2">
         <v>0.13</v>
       </c>
-      <c r="E41" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.125</v>
-      </c>
       <c r="G41" s="2">
-        <v>0.13</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="H41" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I41" s="4">
-        <v>2.1499999999999998E-2</v>
+      <c r="I41" s="3">
+        <v>-2.4E-2</v>
       </c>
       <c r="J41" s="3">
-        <v>-2.3999999999999998E-3</v>
+        <v>-5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1">
-        <v>39331</v>
+        <v>39368</v>
       </c>
       <c r="B42" s="1">
-        <v>39350</v>
+        <v>39380</v>
       </c>
       <c r="C42" s="2">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="D42" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E42" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F42" s="2">
         <v>0.125</v>
       </c>
-      <c r="E42" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.12</v>
-      </c>
       <c r="G42" s="2">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="H42" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I42" s="3">
-        <v>-2.1600000000000001E-2</v>
+      <c r="I42" s="4">
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="J42" s="3">
-        <v>-2.2100000000000002E-2</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1">
-        <v>39293</v>
+        <v>39331</v>
       </c>
       <c r="B43" s="1">
-        <v>39309</v>
+        <v>39350</v>
       </c>
       <c r="C43" s="2">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="D43" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="E43" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F43" s="2">
         <v>0.12</v>
       </c>
-      <c r="E43" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0.115</v>
-      </c>
       <c r="G43" s="2">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="H43" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I43" s="4">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="J43" s="4">
-        <v>9.1999999999999998E-3</v>
+      <c r="I43" s="3">
+        <v>-2.1600000000000001E-2</v>
+      </c>
+      <c r="J43" s="3">
+        <v>-2.2100000000000002E-2</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1">
-        <v>39220</v>
+        <v>39293</v>
       </c>
       <c r="B44" s="1">
-        <v>39238</v>
+        <v>39309</v>
       </c>
       <c r="C44" s="2">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="D44" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E44" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F44" s="2">
         <v>0.115</v>
       </c>
-      <c r="E44" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.11</v>
-      </c>
       <c r="G44" s="2">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="H44" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I44" s="4">
-        <v>1.04E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="J44" s="4">
-        <v>1.4E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1">
-        <v>39201</v>
+        <v>39220</v>
       </c>
       <c r="B45" s="1">
-        <v>39217</v>
+        <v>39238</v>
       </c>
       <c r="C45" s="2">
-        <v>0.105</v>
+        <v>0.11</v>
       </c>
       <c r="D45" s="2">
+        <v>0.115</v>
+      </c>
+      <c r="E45" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F45" s="2">
         <v>0.11</v>
       </c>
-      <c r="E45" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0.105</v>
-      </c>
       <c r="G45" s="2">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="H45" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I45" s="4">
-        <v>2.1600000000000001E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="J45" s="4">
-        <v>1.66E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1">
-        <v>39177</v>
+        <v>39201</v>
       </c>
       <c r="B46" s="1">
-        <v>39188</v>
+        <v>39217</v>
       </c>
       <c r="C46" s="2">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="D46" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F46" s="2">
         <v>0.105</v>
       </c>
-      <c r="E46" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.1</v>
-      </c>
       <c r="G46" s="2">
-        <v>0.105</v>
+        <v>0.11</v>
       </c>
       <c r="H46" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I46" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="J46" s="4">
-        <v>1.17E-2</v>
+        <v>1.66E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1">
-        <v>39129</v>
+        <v>39177</v>
       </c>
       <c r="B47" s="1">
-        <v>39138</v>
+        <v>39188</v>
       </c>
       <c r="C47" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D47" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="E47" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F47" s="2">
         <v>0.1</v>
       </c>
-      <c r="E47" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F47" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
       <c r="G47" s="2">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="H47" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I47" s="4">
-        <v>1.41E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J47" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>1.17E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1">
+        <v>39129</v>
+      </c>
+      <c r="B48" s="1">
+        <v>39138</v>
+      </c>
+      <c r="C48" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F48" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1.41E-2</v>
+      </c>
+      <c r="J48" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
         <v>39087</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="1">
         <v>39097</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="2">
         <v>0.09</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D49" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E48" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F48" s="2">
+      <c r="E49" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F49" s="2">
         <v>0.09</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G49" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="H48" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I48" s="4">
+      <c r="H49" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I49" s="4">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J49" s="4">
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>